--- a/GestorReceitas/transferencias_com_alunos_e_contribuintes.xlsx
+++ b/GestorReceitas/transferencias_com_alunos_e_contribuintes.xlsx
@@ -478,10 +478,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>aldeia natal, joao rios</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t>joao rios, aldeia natal, joao pereira rios</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>294086803</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -497,10 +501,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>aldeia natal, joao rios</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+          <t>joao rios, aldeia natal, joao pereira rios</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>294086803</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -516,10 +524,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>aldeia natal, joao rios</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>joao rios, aldeia natal, joao pereira rios</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>294086803</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -595,10 +607,14 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>joao aroso, simao aroso</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>joao aroso, simao maia aroso</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>306789825</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -614,10 +630,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>duarte moreira</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>dinis coutinho moreira, duarte coutinho moreira, duarte moreira</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>305801384</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -633,10 +653,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>santiago maia</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+          <t>santiago da silva maia, santiago maia</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>286559870</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -667,10 +691,14 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>leticia ferreira</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+          <t>leticia azevedo ferreira, leticia ferreira</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>304693057</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -686,10 +714,14 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>maria ferreira</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>maria maia ferreira, maria ferreira</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>292656050</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -705,10 +737,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>susana simoes</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+          <t>susana simoes, susana beatriz lima simoes</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>287620778</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -724,10 +760,14 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>santiago maia</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>santiago da silva maia, santiago maia</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>286559870</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -758,10 +798,14 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>gabriela costa</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>gabriela gomes da costa, gabriela costa</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>292458118</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -777,10 +821,14 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>duarte pereira</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>duarte ferreira pereira</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>306021153</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -796,7 +844,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>andreia silva, martim silva</t>
+          <t>martim silva, andreia silva, martim de carvalho santos silva</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -819,10 +867,14 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>lucas silva</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>lucas pereira jose e silva</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>294490094</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -838,10 +890,14 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>joao aroso, simao aroso</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>joao aroso, simao maia aroso</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>306789825</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -857,10 +913,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>gabriel silva</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t>gabriel silva, gabriel bogas silva</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>289954339</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -876,10 +936,14 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>dinis santos, maria santos</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+          <t>dinis santos, dinis filipe bessa santos, maria santos</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>291209890</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -910,10 +974,14 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>sofia santos</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+          <t>sofia luisa pinheiro dos santos, sofia santos</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>293688036</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -944,7 +1012,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>matilde vieira, alexandre vieira</t>
+          <t>alexandre vieira, matilde vieira</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -978,10 +1046,14 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>santiago guedes</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
+          <t>santiago martins da silva guedes, santiago guedes</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>295083212</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -997,10 +1069,14 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>clara amorim</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
+          <t>clara amorim, clara sofia maia amorim</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>297621556</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1016,10 +1092,14 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>clara amorim</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
+          <t>clara amorim, clara sofia maia amorim</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>297621556</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1035,7 +1115,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>leonor silva</t>
+          <t>leonor silva, leonor grandim da silva</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -1054,10 +1134,14 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>clara amorim</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
+          <t>clara amorim, clara sofia maia amorim</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>297621556</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1126,10 +1210,14 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>mafalda loureiro</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
+          <t>mafalda loureiro, mafalda sofia pereira loureiro</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>318126885</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1145,10 +1233,14 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>mafalda loureiro</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
+          <t>mafalda loureiro, mafalda sofia pereira loureiro</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>318126885</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1164,10 +1256,14 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>mafalda loureiro</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
+          <t>mafalda loureiro, mafalda sofia pereira loureiro</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>318126885</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1183,10 +1279,14 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>pedro carvalho</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
+          <t>pedro sousa carvalho, pedro carvalho</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>294209018</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1202,10 +1302,14 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>pedro carvalho</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
+          <t>pedro sousa carvalho, pedro carvalho</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>294209018</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1221,10 +1325,14 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>luis goncalves, julia goncalves</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
+          <t>julia goncalves, luis miguel inacio goncalves, julia filipa inacio goncalves, luis goncalves</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>284925683</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1240,10 +1348,14 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>luis goncalves, julia goncalves</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
+          <t>julia goncalves, luis miguel inacio goncalves, julia filipa inacio goncalves, luis goncalves</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>284925683</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1274,10 +1386,14 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>samuel ferreira</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
+          <t>samuel ferreira, samuel filipe da silva ferreira</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>291331734</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1293,10 +1409,14 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>matilde marques</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
+          <t>matilde marques, matilde loureiro marques</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>291965016</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1335,10 +1455,14 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>maria madureira</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
+          <t>maria ines madureira</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>300252730</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1354,10 +1478,14 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>melissa maia</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
+          <t>melissa de sousa maia</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>306745321</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1373,10 +1501,14 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>leonor faria</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
+          <t>leonor margarida moreira faria, leonor faria</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>292614292</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1407,7 +1539,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>maria monteiro</t>
+          <t>maria meneses monteiro, maria monteiro</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -1426,10 +1558,14 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>alvaro costa</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
+          <t>alvaro miguel miranda da costa, alvaro costa</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>285029908</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1475,10 +1611,14 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>mafalda fragoso</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
+          <t>mafalda fragoso, mafalda sofia rodrigues fragoso</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>290677599</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1513,10 +1653,14 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>lara oliveira</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
+          <t>lara oliveira, lara beatriz dias oliveira</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>289182573</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -1532,10 +1676,14 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>antonia silva</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr"/>
+          <t>antonia moreira da silva, antonia silva</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>288824520</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -1581,7 +1729,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>jose martim, jose martim goncalves</t>
+          <t>jose martim silva goncalves, jose martim goncalves</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -1604,10 +1752,14 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>mafalda fragoso</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
+          <t>mafalda fragoso, mafalda sofia rodrigues fragoso</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>290677599</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -1623,7 +1775,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>benedita maia</t>
+          <t>benedita maia dias</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -1710,10 +1862,14 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>afonso teixeira</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr"/>
+          <t>afonso filipe silva teixeira, afonso teixeira</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>289953316</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -1729,10 +1885,14 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>dinis santos, maria santos</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr"/>
+          <t>dinis santos, dinis filipe bessa santos, maria santos</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>291209890</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -1748,10 +1908,14 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>dinis santos, maria santos</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr"/>
+          <t>dinis santos, dinis filipe bessa santos, maria santos</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>291209890</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -1767,10 +1931,14 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>santiago maia</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr"/>
+          <t>santiago da silva maia, santiago maia</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>286559870</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -1786,10 +1954,14 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>christopher souza, christopher sousa</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr"/>
+          <t>christopher lebber de souza, christopher sousa, christopher souza</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>303282355</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -1820,10 +1992,14 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>mariana amorim</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr"/>
+          <t>mariana da fonseca amorim, mariana amorim</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>288929144</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -1839,10 +2015,14 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>joao aroso, simao aroso</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr"/>
+          <t>joao aroso, simao maia aroso</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>306789825</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -1937,10 +2117,14 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>ana beatriz inacio</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr"/>
+          <t>ana beatriz coelho inacio, ana beatriz inacio</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>294314008</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -1956,10 +2140,14 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>samuel ferreira</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr"/>
+          <t>samuel ferreira, samuel filipe da silva ferreira</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>291331734</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -1994,10 +2182,14 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>luis goncalves, julia goncalves</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr"/>
+          <t>julia goncalves, luis miguel inacio goncalves, julia filipa inacio goncalves, luis goncalves</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>284925683</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -2013,10 +2205,14 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>luis goncalves, julia goncalves</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr"/>
+          <t>julia goncalves, luis miguel inacio goncalves, julia filipa inacio goncalves, luis goncalves</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>284925683</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -2032,7 +2228,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>andreia silva, martim silva</t>
+          <t>martim silva, andreia silva, martim de carvalho santos silva</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2055,10 +2251,14 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>lucas silva</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr"/>
+          <t>lucas pereira jose e silva</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>294490094</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -2104,10 +2304,14 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>melissa maia</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr"/>
+          <t>melissa de sousa maia</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>306745321</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -2123,10 +2327,14 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>melissa maia</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr"/>
+          <t>melissa de sousa maia</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>306745321</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -2157,10 +2365,14 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>maria madureira</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr"/>
+          <t>maria ines madureira</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>300252730</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -2176,10 +2388,14 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>duarte moreira</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr"/>
+          <t>dinis coutinho moreira, duarte coutinho moreira, duarte moreira</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>305801384</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -2195,10 +2411,14 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>mateus cunha, tomas cunha</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr"/>
+          <t>mateus cunha, tomas cunha, mateus monteiro cunha, tomas monteiro cunha</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>303728795</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -2274,10 +2494,14 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>sofia santos</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr"/>
+          <t>sofia luisa pinheiro dos santos, sofia santos</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>293688036</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -2293,10 +2517,14 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>santiago guedes</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr"/>
+          <t>santiago martins da silva guedes, santiago guedes</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>295083212</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -2312,10 +2540,14 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>leticia ferreira</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr"/>
+          <t>leticia azevedo ferreira, leticia ferreira</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>304693057</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -2346,10 +2578,14 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>mateus campos, leonardo campos, aldeia natal</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr"/>
+          <t>aldeia natal, mateus campos, mateus teixeira campos, leonardo campos</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>294329528</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -2365,10 +2601,14 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>yara oliveira</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr"/>
+          <t>yara vaz oliveira, yara oliveira</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>303919655</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -2418,10 +2658,14 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>joao aroso, simao aroso</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr"/>
+          <t>joao aroso, simao maia aroso</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>306789825</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -2437,10 +2681,14 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>tiago silva, duarte silva</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr"/>
+          <t>duarte silva, duarte filipe rocha silva, tiago silva</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>294437452</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -2456,10 +2704,14 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>maria madureira</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr"/>
+          <t>maria ines madureira</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>300252730</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -2475,10 +2727,14 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>dinis santos, maria santos</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr"/>
+          <t>dinis santos, dinis filipe bessa santos, maria santos</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>291209890</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -2494,10 +2750,14 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>goncalo pereira</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr"/>
+          <t>goncalo moreira pereira</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>295962968</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -2513,7 +2773,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>afonso ferreira</t>
+          <t>afonso ferreira, afonso monteiro ferreira</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -2536,10 +2796,14 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>joao aroso, simao aroso</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr"/>
+          <t>joao aroso, simao maia aroso</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>306789825</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
